--- a/SuppXLS/Scen_Wind_Profile.xlsx
+++ b/SuppXLS/Scen_Wind_Profile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_MACIEK\Uczelnia\_przedmioty\Integrated Energy Resource Planning\2024-2025\winter\VedaonlineStudens-main\VedaonlineStudens-main\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\PK_VEDA\2023.12.06 - Very Simple Times Model\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D07AEA3-4536-46F4-9CFC-547CCDA1ACB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F91D44-CDF2-494F-80F4-3DCB0E3E21E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
   <si>
     <t>TimeSlice</t>
   </si>
@@ -102,19 +91,13 @@
   </si>
   <si>
     <t>UP</t>
-  </si>
-  <si>
-    <t>FX</t>
-  </si>
-  <si>
-    <t>LO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,6 +123,13 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -230,12 +220,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -259,7 +250,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -270,12 +260,13 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="4" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Normal 10" xfId="2" xr:uid="{EC0AC33C-B7F0-448A-AADD-A58864234F2E}"/>
     <cellStyle name="Normal 4" xfId="1" xr:uid="{BA96B4E3-7EF0-4F94-8893-B1418C31CECC}"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Procentowy" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -555,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="270" zoomScaleNormal="270" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,144 +616,154 @@
       <c r="F6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="17">
         <f ca="1">RAND()</f>
-        <v>0.6618215927212201</v>
+        <v>3.5864691375103841E-2</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="10"/>
-      <c r="C7" s="10" t="s">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="9">
+      <c r="F7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="17">
         <f t="shared" ref="G7:G13" ca="1" si="0">RAND()</f>
-        <v>0.48075881178300595</v>
+        <v>0.13340782574388577</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="12"/>
-      <c r="C8" s="12" t="s">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="9">
+      <c r="F8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49793687560379862</v>
+        <v>0.47398923448170927</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="10"/>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="9">
+      <c r="F9" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98207866749933537</v>
+        <v>9.1215161891481378E-2</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="12"/>
-      <c r="C10" s="12" t="s">
+      <c r="B10" s="11"/>
+      <c r="C10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="9">
+      <c r="F10" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14553067911531603</v>
+        <v>0.8693207274129795</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="10"/>
-      <c r="C11" s="10" t="s">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="9">
+      <c r="F11" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15944111562314667</v>
+        <v>0.77407514954000567</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="12"/>
-      <c r="C12" s="12" t="s">
+      <c r="B12" s="11"/>
+      <c r="C12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="9">
+      <c r="F12" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28454759199362123</v>
+        <v>2.3108025705224078E-3</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="15"/>
-      <c r="C13" s="15" t="s">
+      <c r="B13" s="14"/>
+      <c r="C13" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="9">
+      <c r="F13" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31697893724135973</v>
+        <v>0.46859758851459266</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G15" s="17">
+      <c r="G15" s="16">
         <f ca="1">SUM(G6:G13)</f>
-        <v>3.5290942715808038</v>
+        <v>2.8487811815302804</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G16" s="17">
+      <c r="G16" s="16">
         <f ca="1">SUM(G6:G13)</f>
-        <v>3.5290942715808038</v>
+        <v>2.8487811815302804</v>
       </c>
     </row>
   </sheetData>
@@ -771,6 +772,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E800C01780957C4993EAD0B0EDC5E8FF" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1ada55d1baadc38a59b37f146ad1da21">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="95645557-b925-4e14-b9c3-bb0dccab904e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6148ddbe210b331c9edc42bf7e0f90a" ns2:_="">
     <xsd:import namespace="95645557-b925-4e14-b9c3-bb0dccab904e"/>
@@ -914,15 +924,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -930,13 +931,36 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCEEB4B7-78E0-4B6E-86DB-B5340A08A767}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21302669-4263-4E83-8544-65D7F8869935}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21302669-4263-4E83-8544-65D7F8869935}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCEEB4B7-78E0-4B6E-86DB-B5340A08A767}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="95645557-b925-4e14-b9c3-bb0dccab904e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD484F8A-F1B9-430D-B6E2-9C0D880C6E7F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD484F8A-F1B9-430D-B6E2-9C0D880C6E7F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>